--- a/APM/DATA/TABLES/OHL_IEEE_39.xlsx
+++ b/APM/DATA/TABLES/OHL_IEEE_39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,17 +98,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="113">
   <si>
     <t xml:space="preserve">Welcome to PywerAPM</t>
   </si>
   <si>
     <t xml:space="preserve">Module 
 OHL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 46 26-30 of. 605, Bogotá D.C.
-(+57) 3107669918</t>
   </si>
   <si>
     <t xml:space="preserve">Company</t>
@@ -990,63 +986,21 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="625320" y="812520"/>
-          <a:ext cx="4469040" cy="2193120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="9.17"/>
   </cols>
@@ -1191,9 +1145,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1205,7 +1157,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1218,7 +1170,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1245,12 +1197,11 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1260,1348 +1211,1348 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="18.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="18.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="10.66"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="13" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="10.65"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="13" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="16" t="n">
         <v>71</v>
       </c>
       <c r="D2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="19" t="n">
         <v>2006</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="24" t="n">
         <v>72</v>
       </c>
       <c r="D3" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="F3" s="27" t="n">
         <v>2006</v>
       </c>
       <c r="G3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="J3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="K3" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="24" t="n">
         <v>73</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="F4" s="27" t="n">
         <v>1998</v>
       </c>
       <c r="G4" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="I4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L4" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C5" s="24" t="n">
         <v>74</v>
       </c>
       <c r="D5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="F5" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="I5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="J5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="K5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L5" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="24" t="n">
         <v>75</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="27" t="n">
         <v>2015</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="I6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="J6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="K6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L6" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C7" s="24" t="n">
         <v>76</v>
       </c>
       <c r="D7" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="F7" s="27" t="n">
         <v>2006</v>
       </c>
       <c r="G7" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="I7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="K7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L7" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="24" t="n">
         <v>77</v>
       </c>
       <c r="D8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="27" t="n">
         <v>2010</v>
       </c>
       <c r="G8" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="I8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="J8" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="K8" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L8" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C9" s="24" t="n">
         <v>78</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="I9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="J9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="K9" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="29" t="s">
+      <c r="L9" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" s="27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="24" t="n">
         <v>79</v>
       </c>
       <c r="D10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>43</v>
       </c>
       <c r="F10" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="I10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="J10" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="K10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L10" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="24" t="n">
         <v>80</v>
       </c>
       <c r="D11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="F11" s="27" t="n">
         <v>2007</v>
       </c>
       <c r="G11" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="I11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="K11" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="L11" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C12" s="24" t="n">
         <v>81</v>
       </c>
       <c r="D12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>47</v>
       </c>
       <c r="F12" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G12" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="I12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="J12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="K12" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="29" t="s">
+      <c r="L12" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="L12" s="27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C13" s="24" t="n">
         <v>82</v>
       </c>
       <c r="D13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="26" t="s">
         <v>48</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="F13" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="I13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="J13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="K13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L13" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C14" s="24" t="n">
         <v>83</v>
       </c>
       <c r="D14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>51</v>
       </c>
       <c r="F14" s="27" t="n">
         <v>2007</v>
       </c>
       <c r="G14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="I14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="J14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="K14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="L14" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C15" s="24" t="n">
         <v>84</v>
       </c>
       <c r="D15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>52</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="F15" s="27" t="n">
         <v>2006</v>
       </c>
       <c r="G15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="I15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="J15" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="29" t="s">
+      <c r="K15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L15" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C16" s="24" t="n">
         <v>85</v>
       </c>
       <c r="D16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>55</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>56</v>
       </c>
       <c r="F16" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="I16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="J16" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="K16" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L16" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C17" s="24" t="n">
         <v>86</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>58</v>
       </c>
       <c r="F17" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G17" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="I17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="J17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="K17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L17" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C18" s="24" t="n">
         <v>87</v>
       </c>
       <c r="D18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>60</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="F18" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G18" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I18" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C19" s="24" t="n">
         <v>88</v>
       </c>
       <c r="D19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>65</v>
       </c>
       <c r="F19" s="27" t="n">
         <v>2016</v>
       </c>
       <c r="G19" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I19" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="J19" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C20" s="24" t="n">
         <v>89</v>
       </c>
       <c r="D20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>69</v>
       </c>
       <c r="F20" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I20" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L20" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C21" s="24" t="n">
         <v>90</v>
       </c>
       <c r="D21" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="26" t="s">
         <v>71</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="F21" s="27" t="n">
         <v>2006</v>
       </c>
       <c r="G21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="28" t="s">
+      <c r="I21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="J21" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="K21" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K21" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L21" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C22" s="24" t="n">
         <v>91</v>
       </c>
       <c r="D22" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="26" t="s">
         <v>73</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>74</v>
       </c>
       <c r="F22" s="27" t="n">
         <v>2010</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="I22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="J22" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="K22" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K22" s="29" t="s">
+      <c r="L22" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="L22" s="27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C23" s="24" t="n">
         <v>92</v>
       </c>
       <c r="D23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>76</v>
       </c>
       <c r="F23" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G23" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="28" t="s">
+      <c r="I23" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="J23" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="29" t="s">
+      <c r="K23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K23" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L23" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C24" s="24" t="n">
         <v>93</v>
       </c>
       <c r="D24" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>77</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>78</v>
       </c>
       <c r="F24" s="27" t="n">
         <v>2015</v>
       </c>
       <c r="G24" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="I24" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="29" t="s">
+      <c r="J24" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="K24" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K24" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L24" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C25" s="24" t="n">
         <v>94</v>
       </c>
       <c r="D25" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="26" t="s">
         <v>79</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>80</v>
       </c>
       <c r="F25" s="27" t="n">
         <v>2006</v>
       </c>
       <c r="G25" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="I25" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="29" t="s">
+      <c r="J25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="K25" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L25" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C26" s="24" t="n">
         <v>95</v>
       </c>
       <c r="D26" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>81</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>82</v>
       </c>
       <c r="F26" s="27" t="n">
         <v>2010</v>
       </c>
       <c r="G26" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I26" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C27" s="24" t="n">
         <v>96</v>
       </c>
       <c r="D27" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="F27" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G27" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I27" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C28" s="24" t="n">
         <v>97</v>
       </c>
       <c r="D28" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="F28" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G28" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I28" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L28" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C29" s="24" t="n">
         <v>98</v>
       </c>
       <c r="D29" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="F29" s="27" t="n">
         <v>2007</v>
       </c>
       <c r="G29" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="I29" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="29" t="s">
+      <c r="J29" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="K29" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L29" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C30" s="24" t="n">
         <v>99</v>
       </c>
       <c r="D30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>89</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>90</v>
       </c>
       <c r="F30" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G30" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="I30" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="J30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="K30" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="29" t="s">
+      <c r="L30" s="27" t="s">
         <v>23</v>
-      </c>
-      <c r="L30" s="27" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="23" t="s">
-        <v>16</v>
-      </c>
       <c r="C31" s="24" t="n">
         <v>100</v>
       </c>
       <c r="D31" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>91</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>92</v>
       </c>
       <c r="F31" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G31" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="I31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="29" t="s">
+      <c r="J31" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="K31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L31" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C32" s="24" t="n">
         <v>101</v>
       </c>
       <c r="D32" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>93</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>94</v>
       </c>
       <c r="F32" s="27" t="n">
         <v>2007</v>
       </c>
       <c r="G32" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="28" t="s">
+      <c r="I32" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="J32" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="K32" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L32" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C33" s="24" t="n">
         <v>102</v>
       </c>
       <c r="D33" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>95</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>96</v>
       </c>
       <c r="F33" s="27" t="n">
         <v>2006</v>
       </c>
       <c r="G33" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="28" t="s">
+      <c r="I33" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="J33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="K33" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="29" t="s">
-        <v>23</v>
-      </c>
       <c r="L33" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C34" s="24" t="n">
         <v>103</v>
       </c>
       <c r="D34" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="F34" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G34" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I34" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="J34" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="27" t="s">
         <v>62</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="27" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="23" t="s">
         <v>15</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>16</v>
       </c>
       <c r="C35" s="24" t="n">
         <v>104</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>99</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>100</v>
       </c>
       <c r="F35" s="27" t="n">
         <v>1997</v>
       </c>
       <c r="G35" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="28" t="s">
-        <v>20</v>
-      </c>
       <c r="I35" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="27" t="s">
         <v>66</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2619,49 +2570,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D118" activeCellId="0" sqref="D118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="32" t="s">
+      <c r="F1" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6760,7 +6711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6770,35 +6721,35 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="F1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>107</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,7 +7691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -7750,35 +7701,35 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.8359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>103</v>
-      </c>
       <c r="F1" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>109</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8366,7 +8317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -8376,21 +8327,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
